--- a/pred_ohlcv/54_21/2020-01-20 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 XMR ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>-130.819025594392</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-130.806025594392</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-143.997125594392</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-154.799625594392</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-154.799625594392</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-154.154047802269</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-154.455447802269</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-156.462847802269</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-155.499247802269</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-155.499247802269</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-158.546647802269</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-159.204147802269</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-159.504147802269</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-160.233447802269</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-159.5189478022691</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-154.531447802269</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-78.02264780226903</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-78.58684780226903</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-79.55934780226903</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-79.55934780226903</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-83.55934780226903</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-83.55934780226903</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-85.86554780226903</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-85.86554780226903</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-125.852847802269</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-125.172847802269</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-126.943447802269</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-124.506647802269</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-117.939847802269</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-117.939847802269</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-116.049147802269</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-115.719147802269</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-115.732047802269</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-115.745047802269</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-123.973647802269</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-123.906647802269</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-123.886647802269</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-124.653647802269</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-124.532047802269</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-121.864447802269</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-122.076347802269</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-128.2551478022691</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-147.527147802269</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-147.527147802269</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-147.527147802269</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-167.470047802269</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-167.470047802269</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-197.847247802269</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-200.707947802269</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 XMR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 XMR ohlcv.xlsx
@@ -756,7 +756,7 @@
         <v>-63.84402559439201</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-66.35342559439201</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-130.819025594392</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-130.806025594392</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-143.997125594392</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-154.799625594392</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-154.799625594392</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-154.154047802269</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-154.455447802269</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-156.462847802269</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-155.499247802269</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-155.499247802269</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-158.546647802269</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-159.204147802269</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-159.504147802269</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-160.233447802269</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-159.5189478022691</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-154.531447802269</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-78.02264780226903</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-78.58684780226903</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-78.55934780226903</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-79.55934780226903</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-79.55934780226903</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-83.55934780226903</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-83.55934780226903</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-85.86554780226903</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-85.86554780226903</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-125.852847802269</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-125.172847802269</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-126.943447802269</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-124.506647802269</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-117.939847802269</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-117.939847802269</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-116.049147802269</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-115.719147802269</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-115.732047802269</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-115.745047802269</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-123.973647802269</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-123.906647802269</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-123.886647802269</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-124.653647802269</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-124.532047802269</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-121.864447802269</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-122.076347802269</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-128.2551478022691</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-147.527147802269</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-147.527147802269</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-163.956247802269</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-163.956247802269</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-163.822747802269</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
